--- a/Pull Request Here/Research CostFactor Adjustment - 2351233341/Research CostFactor Adjustment - 2351233341.xlsx
+++ b/Pull Request Here/Research CostFactor Adjustment - 2351233341/Research CostFactor Adjustment - 2351233341.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0C9123-8556-4D17-854F-F56DB1B20090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D19BAA-0308-44F1-B4C7-0F949A28C111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모든 설정을 모드 기본값으로 복원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>R - Result cost value\nB - Base cost value\nD - Tech levels difference\nF - Difference factor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -262,10 +258,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모든 설정을 기본값으로 복원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Increase in the project cost depending on the difference in the project's and researcher's tech levels.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -278,11 +270,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>기본 연구비용을 1000 이라고 가정했을 때, 위의 설정대로 계산하여 나타낸 표입니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>시대 수준 계수:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 설정을 모드의 기본값으로 복원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 설정을 게임 기본값으로 복원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 연구비용을 1000 이라고 가정했을 때, 위의 설정대로 계산하여 나타낸 표입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -682,10 +682,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -702,7 +702,7 @@
         <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -719,7 +719,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -767,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,10 +818,10 @@
         <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -855,7 +855,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
         <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -906,7 +906,7 @@
         <v>60</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
         <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -940,7 +940,7 @@
         <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -957,7 +957,7 @@
         <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -974,7 +974,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
